--- a/artfynd/A 73613-2021 artfynd.xlsx
+++ b/artfynd/A 73613-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY60"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7577,6 +7577,116 @@
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>131219164</v>
+      </c>
+      <c r="B61" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Sims bodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>515143</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6704966</v>
+      </c>
+      <c r="S61" t="n">
+        <v>50</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 73613-2021 artfynd.xlsx
+++ b/artfynd/A 73613-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7687,6 +7687,331 @@
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>131273902</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Sims fäbodar, Dlr</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>515081</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6704854</v>
+      </c>
+      <c r="S62" t="n">
+        <v>50</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>131273875</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Sims fäbodar, Dlr</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>515025</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6704768</v>
+      </c>
+      <c r="S63" t="n">
+        <v>50</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>131273771</v>
+      </c>
+      <c r="B64" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Sims fäbodar, Dlr</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>515338</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6704939</v>
+      </c>
+      <c r="S64" t="n">
+        <v>50</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
